--- a/docs/pediatric-bmi-for-age.xlsx
+++ b/docs/pediatric-bmi-for-age.xlsx
@@ -159,7 +159,7 @@
     <t>FHIR Vital Signs Profile</t>
   </si>
   <si>
-    <t>This profile defines  how to representBMI percentile per age and sex for youth 2-20 observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
+    <t>This profile defines how to represent BMI percentile per age and sex for youth 2-20 observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
